--- a/Subject_Dir/ToDolist_Dir/Subject_List.xlsx
+++ b/Subject_Dir/ToDolist_Dir/Subject_List.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>과목</t>
   </si>
@@ -32,16 +32,16 @@
     <t>중요도</t>
   </si>
   <si>
-    <t>SW공학</t>
-  </si>
-  <si>
-    <t>프로젝트 계획서 작성</t>
-  </si>
-  <si>
-    <t>4월5일</t>
-  </si>
-  <si>
-    <t>4월4일</t>
+    <t>SW테스트</t>
+  </si>
+  <si>
+    <t>테스트 계획서 작성</t>
+  </si>
+  <si>
+    <t>6월3일</t>
+  </si>
+  <si>
+    <t>6월6일</t>
   </si>
   <si>
     <t>완료</t>
@@ -50,31 +50,58 @@
     <t>1</t>
   </si>
   <si>
-    <t>요구사항 명세서 작성</t>
-  </si>
-  <si>
-    <t>4월24일</t>
-  </si>
-  <si>
-    <t>4월27일</t>
+    <t>테스트 케이스 설계</t>
+  </si>
+  <si>
+    <t>7월14일</t>
+  </si>
+  <si>
+    <t>7월16일</t>
+  </si>
+  <si>
+    <t>진행</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>UI 설계서 작성</t>
-  </si>
-  <si>
-    <t>5월5일</t>
+    <t>5월4일</t>
   </si>
   <si>
     <t>5월7일</t>
   </si>
   <si>
-    <t>진행</t>
+    <t>테스트 케이스 설계 변경</t>
+  </si>
+  <si>
+    <t>7월19일</t>
+  </si>
+  <si>
+    <t>7월21일</t>
+  </si>
+  <si>
+    <t>준비</t>
+  </si>
+  <si>
+    <t>테스트 케이스 설계 수정</t>
+  </si>
+  <si>
+    <t>7월23일</t>
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>테스트 케이스 수행</t>
+  </si>
+  <si>
+    <t>8월1일</t>
+  </si>
+  <si>
+    <t>8월2일</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -153,16 +180,16 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3">
@@ -179,10 +206,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
